--- a/doc/厅门包装箱Logic.xlsx
+++ b/doc/厅门包装箱Logic.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="245" yWindow="101" windowWidth="14803" windowHeight="8006"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="14808" windowHeight="8004"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$N$39</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="35">
   <si>
     <t>mat_no</t>
   </si>
@@ -150,6 +150,10 @@
   </si>
   <si>
     <t>TRUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -198,7 +202,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -214,7 +218,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -500,21 +504,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -558,7 +562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -602,7 +606,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>330031564</v>
       </c>
@@ -640,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>330031564</v>
       </c>
@@ -678,7 +682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>330031565</v>
       </c>
@@ -716,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>330031565</v>
       </c>
@@ -754,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>330031566</v>
       </c>
@@ -792,7 +796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>330031566</v>
       </c>
@@ -830,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>330037988</v>
       </c>
@@ -868,7 +872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>330037988</v>
       </c>
@@ -906,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>330037989</v>
       </c>
@@ -944,7 +948,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>330037989</v>
       </c>
@@ -982,7 +986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>330037981</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>330037981</v>
       </c>
@@ -1058,7 +1062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>330037997</v>
       </c>
@@ -1096,7 +1100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>330037997</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>330037998</v>
       </c>
@@ -1172,7 +1176,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>330037998</v>
       </c>
@@ -1210,7 +1214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>330037999</v>
       </c>
@@ -1248,7 +1252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>330037999</v>
       </c>
@@ -1286,7 +1290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>330038001</v>
       </c>
@@ -1324,7 +1328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>330038001</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>330038002</v>
       </c>
@@ -1400,7 +1404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>330038002</v>
       </c>
@@ -1438,7 +1442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>330038003</v>
       </c>
@@ -1476,7 +1480,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>330038003</v>
       </c>
@@ -1514,7 +1518,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>330038004</v>
       </c>
@@ -1552,7 +1556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>330038004</v>
       </c>
@@ -1590,7 +1594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>330038005</v>
       </c>
@@ -1628,7 +1632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>330038005</v>
       </c>
@@ -1666,7 +1670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>330038006</v>
       </c>
@@ -1704,7 +1708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>330038006</v>
       </c>
@@ -1742,7 +1746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>330038008</v>
       </c>
@@ -1780,7 +1784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>330038008</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>330038009</v>
       </c>
@@ -1856,7 +1860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>330038009</v>
       </c>
@@ -1894,7 +1898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>330038010</v>
       </c>
@@ -1932,7 +1936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>330038010</v>
       </c>
@@ -1968,6 +1972,11 @@
       </c>
       <c r="N38">
         <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="C45" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
